--- a/App_Templates/QCL_TEMPLATE.xlsx
+++ b/App_Templates/QCL_TEMPLATE.xlsx
@@ -2,33 +2,72 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8160"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$8:$N$8</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t>SERIAL NO</t>
+  </si>
+  <si>
+    <t>CREATE QUALITY CLEARANCE LIST</t>
+  </si>
+  <si>
+    <t>QCL NO.</t>
+  </si>
+  <si>
+    <t>BOM NO</t>
+  </si>
+  <si>
+    <t>As per Purchase Order</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>OFFERED</t>
+  </si>
+  <si>
+    <t>INSPECTION STAGE</t>
+  </si>
+  <si>
+    <t>S.N.</t>
+  </si>
+  <si>
+    <t>Item
+No</t>
+  </si>
+  <si>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Use 'S' for STAGE
+Use 'F' for FINAL
+Use 'SF' for BOTH</t>
+  </si>
   <si>
     <t>UOM</t>
-  </si>
-  <si>
-    <t>S.N.</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
-    <t>Quantity</t>
   </si>
   <si>
     <t>Unit
@@ -37,47 +76,13 @@
   <si>
     <t>Total
 Weight</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>As per Purchase Order</t>
-  </si>
-  <si>
-    <t>SERIAL NO</t>
-  </si>
-  <si>
-    <t>BOM NO</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Item
-No</t>
-  </si>
-  <si>
-    <t>Item Code</t>
-  </si>
-  <si>
-    <t>OFFERED</t>
-  </si>
-  <si>
-    <t>QCL NO.</t>
-  </si>
-  <si>
-    <t>CREATE QUALITY CLEARANCE LIST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +111,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -133,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -344,23 +356,115 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -374,45 +478,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,28 +555,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,11 +604,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -771,187 +899,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8" style="29" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="24" style="28" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="28" customWidth="1"/>
+    <col min="7" max="13" width="9.140625" style="29"/>
+    <col min="14" max="14" width="12.42578125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="30" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="29" t="s">
+      <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="27"/>
     </row>
   </sheetData>
   <sheetProtection password="CF0D" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
-  <autoFilter ref="A8:N8"/>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
@@ -968,7 +1105,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D1:N3"/>
+    <mergeCell ref="D1:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App_Templates/QCL_TEMPLATE.xlsx
+++ b/App_Templates/QCL_TEMPLATE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>SERIAL NO</t>
   </si>
@@ -76,6 +76,21 @@
   <si>
     <t>Total
 Weight</t>
+  </si>
+  <si>
+    <t>PO NUMBER</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Projec Name</t>
+  </si>
+  <si>
+    <t>Drawing ID &amp; REV.</t>
   </si>
 </sst>
 </file>
@@ -145,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -468,6 +483,61 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -478,7 +548,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -501,6 +571,62 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,89 +639,73 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,31 +1009,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="24" style="28" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="28" customWidth="1"/>
-    <col min="7" max="13" width="9.140625" style="29"/>
-    <col min="14" max="14" width="12.42578125" style="30" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="30" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="8.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26" style="53" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="9"/>
+    <col min="9" max="9" width="12.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="9" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="9"/>
+    <col min="15" max="15" width="12.42578125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="5"/>
       <c r="D1" s="31" t="s">
         <v>1</v>
@@ -938,13 +1052,14 @@
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="5"/>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -957,13 +1072,14 @@
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
       <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="5"/>
       <c r="D3" s="37"/>
       <c r="E3" s="38"/>
@@ -976,136 +1092,167 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="I4" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="I5" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="8" t="s">
+    <row r="6" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6"/>
+      <c r="H6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="8" t="s">
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="29"/>
+      <c r="O6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="P7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="1" t="s">
+    <row r="8" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="27"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="12"/>
     </row>
   </sheetData>
   <sheetProtection password="CF0D" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
-  <mergeCells count="18">
-    <mergeCell ref="O7:O8"/>
+  <mergeCells count="25">
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D1:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D1:O3"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App_Templates/QCL_TEMPLATE.xlsx
+++ b/App_Templates/QCL_TEMPLATE.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\WebEitl1\App_Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670D6A71-8F1B-4BF7-ACB5-A60864C62C8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$8:$P$8</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -43,10 +52,6 @@
     <t>S.N.</t>
   </si>
   <si>
-    <t>Item
-No</t>
-  </si>
-  <si>
     <t>Item Code</t>
   </si>
   <si>
@@ -91,12 +96,15 @@
   </si>
   <si>
     <t>Drawing ID &amp; REV.</t>
+  </si>
+  <si>
+    <t>Item No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,7 +556,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -579,11 +587,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,15 +610,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,24 +617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,38 +677,67 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -765,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,9 +819,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,6 +871,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1008,10 +1063,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1022,212 +1077,213 @@
     <col min="3" max="3" width="11.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26" style="53" customWidth="1"/>
+    <col min="6" max="6" width="26" style="13" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" style="8" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="9"/>
     <col min="9" max="9" width="12.5703125" style="9" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="9" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="9"/>
-    <col min="15" max="15" width="12.42578125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="16" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" style="10" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="I4" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="9"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="I5" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="50"/>
+      <c r="A5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="I5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6"/>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="27" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="24"/>
+      <c r="O6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="55"/>
+    </row>
+    <row r="8" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18" t="s">
+      <c r="O8" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF0D" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
-  <mergeCells count="25">
+  <sheetProtection algorithmName="SHA-512" hashValue="yO5L93gZneuVNJotPi10+MWXc9FkIMydLOHG9j+EA1e9qIlUPVpVA+35dPHSYnwOiqVSeCh1RIyWBC++lnHgJA==" saltValue="Bz5dcDFwkDufPtKxiUVYaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
+  <autoFilter ref="B8:P8" xr:uid="{2EA41DC5-7C3E-4361-8F5B-9968FAE12390}"/>
+  <mergeCells count="15">
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="A1:B1"/>
@@ -1240,19 +1296,9 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:M5"/>
-    <mergeCell ref="P7:P8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
